--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Saa1-Cd36.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Saa1-Cd36.xlsx
@@ -540,10 +540,10 @@
         <v>0.390269</v>
       </c>
       <c r="I2">
-        <v>0.9163373647866524</v>
+        <v>0.8652647215324584</v>
       </c>
       <c r="J2">
-        <v>0.9163373647866523</v>
+        <v>0.8652647215324583</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>550.0569519999999</v>
+        <v>547.450775</v>
       </c>
       <c r="N2">
-        <v>1650.170856</v>
+        <v>1642.352325</v>
       </c>
       <c r="O2">
-        <v>0.9236787975512359</v>
+        <v>0.8253533007282613</v>
       </c>
       <c r="P2">
-        <v>0.9236787975512361</v>
+        <v>0.8253533007282614</v>
       </c>
       <c r="Q2">
-        <v>71.55672553336265</v>
+        <v>71.21768883615833</v>
       </c>
       <c r="R2">
-        <v>644.0105298002638</v>
+        <v>640.959199525425</v>
       </c>
       <c r="S2">
-        <v>0.8464013952574033</v>
+        <v>0.7141490939205344</v>
       </c>
       <c r="T2">
-        <v>0.8464013952574033</v>
+        <v>0.7141490939205344</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>0.390269</v>
       </c>
       <c r="I3">
-        <v>0.9163373647866524</v>
+        <v>0.8652647215324584</v>
       </c>
       <c r="J3">
-        <v>0.9163373647866523</v>
+        <v>0.8652647215324583</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,10 +620,10 @@
         <v>4.344058</v>
       </c>
       <c r="O3">
-        <v>0.002431575042877153</v>
+        <v>0.002183077622430991</v>
       </c>
       <c r="P3">
-        <v>0.002431575042877153</v>
+        <v>0.002183077622430991</v>
       </c>
       <c r="Q3">
         <v>0.1883723524002222</v>
@@ -632,10 +632,10 @@
         <v>1.695351171602</v>
       </c>
       <c r="S3">
-        <v>0.002228143067071042</v>
+        <v>0.001888940051056493</v>
       </c>
       <c r="T3">
-        <v>0.002228143067071042</v>
+        <v>0.001888940051056493</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>0.390269</v>
       </c>
       <c r="I4">
-        <v>0.9163373647866524</v>
+        <v>0.8652647215324584</v>
       </c>
       <c r="J4">
-        <v>0.9163373647866523</v>
+        <v>0.8652647215324583</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>44.00177133333333</v>
+        <v>114.393852</v>
       </c>
       <c r="N4">
-        <v>132.005314</v>
+        <v>343.181556</v>
       </c>
       <c r="O4">
-        <v>0.07388962740588684</v>
+        <v>0.1724636216493076</v>
       </c>
       <c r="P4">
-        <v>0.07388962740588685</v>
+        <v>0.1724636216493076</v>
       </c>
       <c r="Q4">
-        <v>5.724175765496222</v>
+        <v>14.881458075396</v>
       </c>
       <c r="R4">
-        <v>51.51758188946599</v>
+        <v>133.933122678564</v>
       </c>
       <c r="S4">
-        <v>0.06770782646217796</v>
+        <v>0.1492266875608674</v>
       </c>
       <c r="T4">
-        <v>0.06770782646217796</v>
+        <v>0.1492266875608674</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,22 +714,22 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.01187733333333333</v>
+        <v>0.020257</v>
       </c>
       <c r="H5">
-        <v>0.035632</v>
+        <v>0.060771</v>
       </c>
       <c r="I5">
-        <v>0.0836626352133477</v>
+        <v>0.1347352784675417</v>
       </c>
       <c r="J5">
-        <v>0.0836626352133477</v>
+        <v>0.1347352784675417</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>550.0569519999999</v>
+        <v>547.450775</v>
       </c>
       <c r="N5">
-        <v>1650.170856</v>
+        <v>1642.352325</v>
       </c>
       <c r="O5">
-        <v>0.9236787975512359</v>
+        <v>0.8253533007282613</v>
       </c>
       <c r="P5">
-        <v>0.9236787975512361</v>
+        <v>0.8253533007282614</v>
       </c>
       <c r="Q5">
-        <v>6.533209771221332</v>
+        <v>11.089710349175</v>
       </c>
       <c r="R5">
-        <v>58.79888794099199</v>
+        <v>99.80739314257499</v>
       </c>
       <c r="S5">
-        <v>0.07727740229383269</v>
+        <v>0.111204206807727</v>
       </c>
       <c r="T5">
-        <v>0.0772774022938327</v>
+        <v>0.111204206807727</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,22 +776,22 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.01187733333333333</v>
+        <v>0.020257</v>
       </c>
       <c r="H6">
-        <v>0.035632</v>
+        <v>0.060771</v>
       </c>
       <c r="I6">
-        <v>0.0836626352133477</v>
+        <v>0.1347352784675417</v>
       </c>
       <c r="J6">
-        <v>0.0836626352133477</v>
+        <v>0.1347352784675417</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,22 +806,22 @@
         <v>4.344058</v>
       </c>
       <c r="O6">
-        <v>0.002431575042877153</v>
+        <v>0.002183077622430991</v>
       </c>
       <c r="P6">
-        <v>0.002431575042877153</v>
+        <v>0.002183077622430991</v>
       </c>
       <c r="Q6">
-        <v>0.01719860829511111</v>
+        <v>0.02933252763533334</v>
       </c>
       <c r="R6">
-        <v>0.154787474656</v>
+        <v>0.263992748718</v>
       </c>
       <c r="S6">
-        <v>0.0002034319758061116</v>
+        <v>0.0002941375713744984</v>
       </c>
       <c r="T6">
-        <v>0.0002034319758061116</v>
+        <v>0.0002941375713744984</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,22 +838,22 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.01187733333333333</v>
+        <v>0.020257</v>
       </c>
       <c r="H7">
-        <v>0.035632</v>
+        <v>0.060771</v>
       </c>
       <c r="I7">
-        <v>0.0836626352133477</v>
+        <v>0.1347352784675417</v>
       </c>
       <c r="J7">
-        <v>0.0836626352133477</v>
+        <v>0.1347352784675417</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>44.00177133333333</v>
+        <v>114.393852</v>
       </c>
       <c r="N7">
-        <v>132.005314</v>
+        <v>343.181556</v>
       </c>
       <c r="O7">
-        <v>0.07388962740588684</v>
+        <v>0.1724636216493076</v>
       </c>
       <c r="P7">
-        <v>0.07388962740588685</v>
+        <v>0.1724636216493076</v>
       </c>
       <c r="Q7">
-        <v>0.522623705383111</v>
+        <v>2.317276259964</v>
       </c>
       <c r="R7">
-        <v>4.703613348447999</v>
+        <v>20.855486339676</v>
       </c>
       <c r="S7">
-        <v>0.006181800943708889</v>
+        <v>0.0232369340884402</v>
       </c>
       <c r="T7">
-        <v>0.006181800943708891</v>
+        <v>0.02323693408844021</v>
       </c>
     </row>
   </sheetData>
